--- a/bio_diversity/static/data_templates/coldbrook-maturity sorting.xlsx
+++ b/bio_diversity/static/data_templates/coldbrook-maturity sorting.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>PIT</t>
   </si>
@@ -44,7 +44,13 @@
     <t>SEX</t>
   </si>
   <si>
-    <t>DATE SORTED (ddmmmyr)</t>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
   </si>
 </sst>
 </file>
@@ -111,9 +117,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,6 +127,15 @@
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -138,15 +153,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -161,15 +167,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G2" insertRow="1" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G2"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="PIT" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I2" insertRow="1" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:I2"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="PIT" dataDxfId="2"/>
     <tableColumn id="2" name="YEAR CLASS"/>
     <tableColumn id="3" name="SEX"/>
     <tableColumn id="4" name="ORIGIN POND"/>
     <tableColumn id="5" name="DESTINATION POND"/>
-    <tableColumn id="6" name="DATE SORTED (ddmmmyr)" dataDxfId="2"/>
+    <tableColumn id="9" name="Year"/>
+    <tableColumn id="8" name="Month"/>
+    <tableColumn id="6" name="Day" dataDxfId="0"/>
     <tableColumn id="7" name="COMMENTS" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -439,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,12 +458,14 @@
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -473,14 +483,20 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
